--- a/us/readme/07262017-网站字号规范对照表格 .xlsx
+++ b/us/readme/07262017-网站字号规范对照表格 .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>1920px</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t>1300-768px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>767px</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,7 +281,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待续</t>
+    <t>14px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>767px（需特殊定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px/3.13vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28px/3.65vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px/1.85vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30px/3.91vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32px/4.17vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50px/6.52vw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -700,7 +744,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -715,27 +759,27 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -750,23 +794,21 @@
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -780,22 +822,22 @@
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -809,23 +851,20 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -840,22 +879,22 @@
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -870,22 +909,22 @@
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -900,23 +939,21 @@
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -930,23 +967,21 @@
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -960,23 +995,21 @@
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -990,23 +1023,21 @@
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1020,23 +1051,21 @@
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1049,10 +1078,21 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1065,26 +1105,66 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="249.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/us/readme/07262017-网站字号规范对照表格 .xlsx
+++ b/us/readme/07262017-网站字号规范对照表格 .xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fontSize" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>1920px</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,7 +239,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.txtColor16/.txtColorSpl16</t>
+    <t>14px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>767px（需特殊定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px/3.13vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28px/3.65vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px/1.85vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30px/3.91vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32px/4.17vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50px/6.52vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.titColor36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.txtColor16/.txtColorSpl16/.titNomCol16,.titEngCol16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,12 +328,14 @@
 2.titColor80：代表白色标题字号，其中80表明在1920px分辨率下的字体为80px；
 3.titNom34：代表标题中的数字字号，颜色为黑色常规色，其中34表明在1920px分辨率下的数字字体为34px；
 4.titEng34：代表标题中的英文字号，颜色为黑色常规色，其中34表明在1920px分辨率下的英文字体为34px；
-5.text32：代表正文的字号，颜色为黑色常规色，其中32表明在1920px分辨率下的正文字体为32px；
-6.txtColor16：代表白色正文字号，其中16表明在1920px分辨率下的字体为16px；
-7.txtNom30：代表正文中的数字字号，颜色为黑色常规色，其中30表明在1920px分辨率下的数字字体为30px；
-8.txtEng30：代表正文中的英文字号，颜色为黑色常规色，其中30表明在1920px分辨率下的英文字体为30px；
-9.txtColorSpl16：代表正文中的特殊颜色字号，颜色可自定义，其中16表明在1920px分辨率下的正文字体为16px；
-10.上表仅为现有字号对照，根据需要，可以添加其他class和font-size。如果个别分辨率中字号过小，可重新定义新数值，最终形成网站文字字号的标准化规范。
+5.titNomCol16:代表标题中的数字字号，颜色为白色，其中16表明在1920px分辨率下的数字字体为16px；
+6.titEngCol16:代表标题中的英文字号，颜色为白色，其中16表明在1920px分辨率下的英文字体为16px；
+7.text32：代表正文的字号，颜色为黑色常规色，其中32表明在1920px分辨率下的正文字体为32px；
+8.txtColor16：代表白色正文字号，其中16表明在1920px分辨率下的字体为16px；
+9.txtNom30：代表正文中的数字字号，颜色为黑色常规色，其中30表明在1920px分辨率下的数字字体为30px；
+10.txtEng30：代表正文中的英文字号，颜色为黑色常规色，其中30表明在1920px分辨率下的英文字体为30px；
+11.txtColorSpl16：代表正文中的特殊颜色字号，颜色可自定义，其中16表明在1920px分辨率下的正文字体为16px；
+12.上表仅为现有字号对照，根据需要，可以添加其他class和font-size。如果个别分辨率中字号过小，可重新定义新数值，最终形成网站文字字号的标准化规范。
 以上是网站文字字号的标准化设计。命名规则采用“驼峰命名法”，相关字号已制定响应式设计，网页制作人员可根据设计稿的标准直接引用class，无需自定义。以字号值命名class，可随时根据需要更换字体大小，无需修改样式文件，灵活方便。如果个别media分辨率出现文字折行的情况，再特殊定义（一般这种情况不多）。详情请参见commonAdd.css中的“fontSize”部分。
 样式标准化设计的好处是：相同元素的样式具有统一性，便于管理及后期维护；灵活化设计使网站架构和修改变得简洁方便。如果是整站的同一级字体字号需要变大或变小，修改class名称即可。其他元素的标准化设计思路也同理，随着二级页面的制作，会总结出其他需要标准化定义的样式。
 </t>
@@ -281,55 +343,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>767px（需特殊定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24px/3.13vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28px/3.65vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24px/1.85vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30px/3.91vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32px/4.17vw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50px/6.52vw</t>
+    <t>48px/6.26vw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,12 +737,12 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.875" style="1" customWidth="1"/>
     <col min="2" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -742,7 +756,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -759,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -779,7 +793,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -808,7 +822,9 @@
       <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -837,7 +853,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -851,20 +867,23 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -894,7 +913,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -924,7 +943,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -953,7 +972,9 @@
       <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1079,7 +1100,7 @@
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -1107,13 +1128,13 @@
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1128,7 +1149,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1145,9 +1166,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
